--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppc-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppc-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Nppc</t>
   </si>
   <si>
     <t>Npr3</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.780679</v>
+        <v>0.1248335</v>
       </c>
       <c r="H2">
-        <v>1.561358</v>
+        <v>0.249667</v>
       </c>
       <c r="I2">
-        <v>0.7765663048495169</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6985288624016814</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.036780333333333</v>
+        <v>0.2561565</v>
       </c>
       <c r="N2">
-        <v>3.110341</v>
+        <v>0.512313</v>
       </c>
       <c r="O2">
-        <v>0.7068906211239625</v>
+        <v>0.1741229440611523</v>
       </c>
       <c r="P2">
-        <v>0.7367257056395262</v>
+        <v>0.1287532712126501</v>
       </c>
       <c r="Q2">
-        <v>0.8093926338463334</v>
+        <v>0.03197691244275</v>
       </c>
       <c r="R2">
-        <v>4.856355803078</v>
+        <v>0.127907649771</v>
       </c>
       <c r="S2">
-        <v>0.5489474375790154</v>
+        <v>0.1741229440611523</v>
       </c>
       <c r="T2">
-        <v>0.5146241690624542</v>
+        <v>0.1287532712126501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.780679</v>
+        <v>0.1248335</v>
       </c>
       <c r="H3">
-        <v>1.561358</v>
+        <v>0.249667</v>
       </c>
       <c r="I3">
-        <v>0.7765663048495169</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6985288624016814</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1781875</v>
+        <v>1.036780333333333</v>
       </c>
       <c r="N3">
-        <v>0.356375</v>
+        <v>3.110341</v>
       </c>
       <c r="O3">
-        <v>0.1214906075104235</v>
+        <v>0.7047537110504822</v>
       </c>
       <c r="P3">
-        <v>0.08441216681620638</v>
+        <v>0.781683420754159</v>
       </c>
       <c r="Q3">
-        <v>0.1391072393125</v>
+        <v>0.1294249177411667</v>
       </c>
       <c r="R3">
-        <v>0.55642895725</v>
+        <v>0.776549506447</v>
       </c>
       <c r="S3">
-        <v>0.09434551214829255</v>
+        <v>0.7047537110504822</v>
       </c>
       <c r="T3">
-        <v>0.05896433485898561</v>
+        <v>0.781683420754159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,247 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.780679</v>
+        <v>0.1248335</v>
       </c>
       <c r="H4">
-        <v>1.561358</v>
+        <v>0.249667</v>
       </c>
       <c r="I4">
-        <v>0.7765663048495169</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6985288624016814</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2517093333333333</v>
+        <v>0.1781875</v>
       </c>
       <c r="N4">
-        <v>0.755128</v>
+        <v>0.356375</v>
       </c>
       <c r="O4">
-        <v>0.1716187713656141</v>
+        <v>0.1211233448883654</v>
       </c>
       <c r="P4">
-        <v>0.1788621275442674</v>
+        <v>0.08956330803319101</v>
       </c>
       <c r="Q4">
-        <v>0.1965041906373333</v>
+        <v>0.02224376928125</v>
       </c>
       <c r="R4">
-        <v>1.179025143824</v>
+        <v>0.088975077125</v>
       </c>
       <c r="S4">
-        <v>0.133273355122209</v>
+        <v>0.1211233448883654</v>
       </c>
       <c r="T4">
-        <v>0.1249403584802416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.224617</v>
-      </c>
-      <c r="H5">
-        <v>0.673851</v>
-      </c>
-      <c r="I5">
-        <v>0.223433695150483</v>
-      </c>
-      <c r="J5">
-        <v>0.3014711375983185</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.036780333333333</v>
-      </c>
-      <c r="N5">
-        <v>3.110341</v>
-      </c>
-      <c r="O5">
-        <v>0.7068906211239625</v>
-      </c>
-      <c r="P5">
-        <v>0.7367257056395262</v>
-      </c>
-      <c r="Q5">
-        <v>0.2328784881323333</v>
-      </c>
-      <c r="R5">
-        <v>2.095906393191</v>
-      </c>
-      <c r="S5">
-        <v>0.157943183544947</v>
-      </c>
-      <c r="T5">
-        <v>0.2221015365770719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.224617</v>
-      </c>
-      <c r="H6">
-        <v>0.673851</v>
-      </c>
-      <c r="I6">
-        <v>0.223433695150483</v>
-      </c>
-      <c r="J6">
-        <v>0.3014711375983185</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6">
-        <v>0.1781875</v>
-      </c>
-      <c r="N6">
-        <v>0.356375</v>
-      </c>
-      <c r="O6">
-        <v>0.1214906075104235</v>
-      </c>
-      <c r="P6">
-        <v>0.08441216681620638</v>
-      </c>
-      <c r="Q6">
-        <v>0.04002394168749999</v>
-      </c>
-      <c r="R6">
-        <v>0.240143650125</v>
-      </c>
-      <c r="S6">
-        <v>0.02714509536213095</v>
-      </c>
-      <c r="T6">
-        <v>0.02544783195722077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.224617</v>
-      </c>
-      <c r="H7">
-        <v>0.673851</v>
-      </c>
-      <c r="I7">
-        <v>0.223433695150483</v>
-      </c>
-      <c r="J7">
-        <v>0.3014711375983185</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2517093333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.755128</v>
-      </c>
-      <c r="O7">
-        <v>0.1716187713656141</v>
-      </c>
-      <c r="P7">
-        <v>0.1788621275442674</v>
-      </c>
-      <c r="Q7">
-        <v>0.05653819532533333</v>
-      </c>
-      <c r="R7">
-        <v>0.508843757928</v>
-      </c>
-      <c r="S7">
-        <v>0.03834541624340507</v>
-      </c>
-      <c r="T7">
-        <v>0.05392176906402583</v>
+        <v>0.08956330803319101</v>
       </c>
     </row>
   </sheetData>
